--- a/public/data/InitialData/Категории.xlsx
+++ b/public/data/InitialData/Категории.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="14295" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>Торговля</t>
   </si>
@@ -276,18 +276,9 @@
     <t>rer</t>
   </si>
   <si>
-    <t>кукуруза производство</t>
-  </si>
-  <si>
-    <t>пшеница производство</t>
-  </si>
-  <si>
     <t>картофель</t>
   </si>
   <si>
-    <t>рожь</t>
-  </si>
-  <si>
     <t>животные</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>рис</t>
   </si>
   <si>
-    <t>и урожайность</t>
-  </si>
-  <si>
     <t>помидоры</t>
   </si>
   <si>
@@ -328,13 +316,25 @@
   </si>
   <si>
     <t>люди или численность</t>
+  </si>
+  <si>
+    <t>кукуруза</t>
+  </si>
+  <si>
+    <t>пшеница</t>
+  </si>
+  <si>
+    <t>рож</t>
+  </si>
+  <si>
+    <t>урожайность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,13 +372,32 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -390,14 +409,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
@@ -410,13 +430,21 @@
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -495,6 +523,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -529,6 +558,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -704,11 +734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H3" sqref="H3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,9 +749,12 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -728,7 +762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -739,87 +773,111 @@
         <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="H5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -827,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -835,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -843,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -851,40 +909,40 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H16" t="s">
-        <v>93</v>
+      <c r="H16" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -894,8 +952,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
-        <v>94</v>
+      <c r="H17" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -905,8 +963,8 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
-        <v>95</v>
+      <c r="H18" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -941,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -952,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27">
@@ -963,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -974,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1572,7 +1630,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1584,7 +1643,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
